--- a/CSISProject-GrpX/Excel/Order_Products.xlsx
+++ b/CSISProject-GrpX/Excel/Order_Products.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\CSV FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order_Products" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Order_ProductID</t>
-  </si>
-  <si>
     <t>OrderID</t>
   </si>
   <si>
     <t>ProductID</t>
   </si>
   <si>
-    <t>ProductQuantity</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,22 +870,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
